--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -1135,7 +1135,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers</t>
+    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -1135,7 +1135,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="723">
   <si>
     <t>Property</t>
   </si>
@@ -1603,9 +1603,6 @@
     <t>Observation.bodySite.coding.system</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/no-bloodpressurebodysite-valueset</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.version</t>
   </si>
   <si>
@@ -1661,9 +1658,6 @@
   </si>
   <si>
     <t>Observation.method.coding.system</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ValueSet/no-domain-vitalsignsobservation-measurementmethodvalueSet</t>
   </si>
   <si>
     <t>Observation.method.coding.version</t>
@@ -13628,7 +13622,7 @@
       </c>
       <c r="X94" s="2"/>
       <c r="Y94" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13681,7 +13675,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13798,7 +13792,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13915,7 +13909,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14032,7 +14026,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14151,7 +14145,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14270,7 +14264,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14296,16 +14290,16 @@
         <v>186</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14334,7 +14328,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -14352,7 +14346,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14373,10 +14367,10 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14387,7 +14381,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14502,7 +14496,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14619,7 +14613,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14683,7 +14677,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14736,7 +14730,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14851,7 +14845,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14968,7 +14962,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15032,7 +15026,7 @@
       </c>
       <c r="X106" s="2"/>
       <c r="Y106" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
@@ -15085,7 +15079,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15202,7 +15196,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15319,7 +15313,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15436,7 +15430,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15555,7 +15549,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15674,7 +15668,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15697,16 +15691,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15756,7 +15750,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15774,24 +15768,24 @@
         <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>541</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15814,16 +15808,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15873,7 +15867,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15891,24 +15885,24 @@
         <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AL113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>550</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15931,19 +15925,19 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15992,7 +15986,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -16004,19 +15998,19 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -16027,7 +16021,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16142,7 +16136,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16259,11 +16253,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16285,10 +16279,10 @@
         <v>135</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>138</v>
@@ -16343,7 +16337,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16378,7 +16372,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16401,13 +16395,13 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16458,7 +16452,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16467,7 +16461,7 @@
         <v>89</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>101</v>
@@ -16479,10 +16473,10 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16493,7 +16487,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16516,13 +16510,13 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16573,7 +16567,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16582,7 +16576,7 @@
         <v>89</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>101</v>
@@ -16594,10 +16588,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16608,7 +16602,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16634,16 +16628,16 @@
         <v>186</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16671,10 +16665,10 @@
         <v>113</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
@@ -16692,7 +16686,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16710,10 +16704,10 @@
         <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>482</v>
@@ -16727,7 +16721,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16753,16 +16747,16 @@
         <v>186</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16787,14 +16781,14 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Y121" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="X121" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16811,7 +16805,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16829,10 +16823,10 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>482</v>
@@ -16846,7 +16840,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16869,17 +16863,17 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16928,7 +16922,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16952,7 +16946,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16963,7 +16957,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16989,10 +16983,10 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17043,7 +17037,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -17064,10 +17058,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17078,7 +17072,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17101,16 +17095,16 @@
         <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -17160,7 +17154,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -17181,10 +17175,10 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -17195,7 +17189,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17218,16 +17212,16 @@
         <v>90</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17277,7 +17271,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17298,10 +17292,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17312,7 +17306,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17320,7 +17314,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>78</v>
@@ -17335,19 +17329,19 @@
         <v>90</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>79</v>
@@ -17384,7 +17378,7 @@
         <v>79</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
@@ -17394,7 +17388,7 @@
         <v>194</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17406,19 +17400,19 @@
         <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM126" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17429,7 +17423,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17544,7 +17538,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17661,11 +17655,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17687,10 +17681,10 @@
         <v>135</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>138</v>
@@ -17745,7 +17739,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17780,7 +17774,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17806,16 +17800,16 @@
         <v>186</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -17864,7 +17858,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>89</v>
@@ -17882,7 +17876,7 @@
         <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>278</v>
@@ -17899,7 +17893,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17922,16 +17916,16 @@
         <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>454</v>
@@ -17962,37 +17956,37 @@
         <v>178</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH131" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>101</v>
@@ -18001,7 +17995,7 @@
         <v>79</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>459</v>
@@ -18018,7 +18012,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18044,13 +18038,13 @@
         <v>186</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>467</v>
@@ -18102,7 +18096,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18111,7 +18105,7 @@
         <v>89</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>101</v>
@@ -18137,7 +18131,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18221,7 +18215,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18256,7 +18250,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18282,16 +18276,16 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18340,7 +18334,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -18361,10 +18355,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18375,10 +18369,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
@@ -18400,19 +18394,19 @@
         <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18461,7 +18455,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18473,19 +18467,19 @@
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM135" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18496,7 +18490,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18611,7 +18605,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18728,11 +18722,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18754,10 +18748,10 @@
         <v>135</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>138</v>
@@ -18812,7 +18806,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18847,11 +18841,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18873,16 +18867,16 @@
         <v>186</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
@@ -18931,7 +18925,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>89</v>
@@ -18949,7 +18943,7 @@
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>278</v>
@@ -18966,7 +18960,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19081,7 +19075,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19198,7 +19192,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19224,10 +19218,10 @@
         <v>209</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>212</v>
@@ -19315,10 +19309,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19343,10 +19337,10 @@
         <v>209</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>212</v>
@@ -19436,7 +19430,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19551,7 +19545,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19668,7 +19662,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19787,7 +19781,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19904,7 +19898,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19944,7 +19938,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>79</v>
@@ -20021,7 +20015,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20138,7 +20132,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20257,10 +20251,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20285,10 +20279,10 @@
         <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>212</v>
@@ -20378,7 +20372,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20493,7 +20487,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20610,7 +20604,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20729,7 +20723,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20846,7 +20840,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20886,7 +20880,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20963,7 +20957,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21080,7 +21074,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21199,7 +21193,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21318,7 +21312,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21344,13 +21338,13 @@
         <v>451</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>454</v>
@@ -21381,37 +21375,37 @@
         <v>178</v>
       </c>
       <c r="X160" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH160" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>101</v>
@@ -21420,7 +21414,7 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>459</v>
@@ -21437,7 +21431,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21552,7 +21546,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21669,7 +21663,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21692,19 +21686,19 @@
         <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21753,7 +21747,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21774,10 +21768,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21788,7 +21782,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21814,20 +21808,20 @@
         <v>109</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P164" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21851,28 +21845,28 @@
         <v>178</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21893,10 +21887,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21907,7 +21901,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21933,14 +21927,14 @@
         <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21989,7 +21983,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -22010,10 +22004,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22024,7 +22018,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22050,72 +22044,72 @@
         <v>103</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH166" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>101</v>
@@ -22127,10 +22121,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22141,7 +22135,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22167,23 +22161,23 @@
         <v>109</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>79</v>
@@ -22225,7 +22219,7 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22246,10 +22240,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22260,7 +22254,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22286,13 +22280,13 @@
         <v>186</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>467</v>
@@ -22344,7 +22338,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22353,7 +22347,7 @@
         <v>89</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>101</v>
@@ -22379,7 +22373,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22463,7 +22457,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22498,7 +22492,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22524,16 +22518,16 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22582,7 +22576,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22603,10 +22597,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22617,10 +22611,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>79</v>
@@ -22642,19 +22636,19 @@
         <v>90</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22703,7 +22697,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22715,19 +22709,19 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM171" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22738,7 +22732,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22853,7 +22847,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22970,11 +22964,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22996,10 +22990,10 @@
         <v>135</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>138</v>
@@ -23054,7 +23048,7 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -23089,7 +23083,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23115,16 +23109,16 @@
         <v>186</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
@@ -23173,7 +23167,7 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>89</v>
@@ -23191,7 +23185,7 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>278</v>
@@ -23208,7 +23202,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23323,7 +23317,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23440,7 +23434,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23466,10 +23460,10 @@
         <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>212</v>
@@ -23557,10 +23551,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
@@ -23585,10 +23579,10 @@
         <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>212</v>
@@ -23678,7 +23672,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23793,7 +23787,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23910,7 +23904,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24029,7 +24023,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24146,7 +24140,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24186,7 +24180,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24263,7 +24257,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24380,7 +24374,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24499,10 +24493,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
@@ -24527,10 +24521,10 @@
         <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>212</v>
@@ -24620,7 +24614,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24735,7 +24729,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24852,7 +24846,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24971,7 +24965,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25088,7 +25082,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25128,7 +25122,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>79</v>
@@ -25205,7 +25199,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25322,7 +25316,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25441,7 +25435,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25560,7 +25554,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25586,13 +25580,13 @@
         <v>451</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>454</v>
@@ -25623,37 +25617,37 @@
         <v>178</v>
       </c>
       <c r="X196" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH196" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>101</v>
@@ -25662,7 +25656,7 @@
         <v>79</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>459</v>
@@ -25679,7 +25673,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25794,7 +25788,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25911,7 +25905,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25934,19 +25928,19 @@
         <v>90</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -25995,7 +25989,7 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -26016,10 +26010,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26030,7 +26024,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26056,20 +26050,20 @@
         <v>109</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P200" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>79</v>
@@ -26093,28 +26087,28 @@
         <v>178</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Y200" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -26135,10 +26129,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26149,7 +26143,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26175,14 +26169,14 @@
         <v>91</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26231,7 +26225,7 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -26252,10 +26246,10 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26266,7 +26260,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26292,72 +26286,72 @@
         <v>103</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH202" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="R202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>101</v>
@@ -26369,10 +26363,10 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>79</v>
@@ -26383,7 +26377,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26409,23 +26403,23 @@
         <v>109</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>79</v>
@@ -26467,7 +26461,7 @@
         <v>79</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26488,10 +26482,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26502,7 +26496,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26528,13 +26522,13 @@
         <v>186</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N204" t="s" s="2">
         <v>467</v>
@@ -26586,7 +26580,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26595,7 +26589,7 @@
         <v>89</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>101</v>
@@ -26621,7 +26615,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26705,7 +26699,7 @@
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>77</v>
@@ -26740,7 +26734,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26766,16 +26760,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
@@ -26824,7 +26818,7 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
@@ -26845,10 +26839,10 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -13600,7 +13600,7 @@
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>79</v>
@@ -13618,11 +13618,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X94" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y94" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13850,13 +13852,11 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>79</v>
@@ -15022,11 +15022,13 @@
         <v>79</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X106" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y106" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>79</v>
@@ -15254,13 +15256,11 @@
         <v>79</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="724">
   <si>
     <t>Property</t>
   </si>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -11748,7 +11751,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11801,7 +11804,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11918,7 +11921,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12033,7 +12036,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12150,7 +12153,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12267,7 +12270,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12290,19 +12293,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12339,17 +12342,17 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12358,7 +12361,7 @@
         <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12367,27 +12370,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12409,19 +12412,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12470,7 +12473,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12479,7 +12482,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12488,24 +12491,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12531,16 +12534,16 @@
         <v>186</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12568,10 +12571,10 @@
         <v>273</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12589,7 +12592,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12598,7 +12601,7 @@
         <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>101</v>
@@ -12613,7 +12616,7 @@
         <v>132</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12624,11 +12627,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12650,16 +12653,16 @@
         <v>186</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12687,10 +12690,10 @@
         <v>273</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12711,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12726,24 +12729,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12766,19 +12769,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12830,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12848,10 +12851,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12862,7 +12865,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12888,13 +12891,13 @@
         <v>186</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12924,7 +12927,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12942,7 +12945,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12960,24 +12963,24 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13092,7 +13095,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13209,7 +13212,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13273,7 +13276,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -13326,7 +13329,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13441,7 +13444,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13558,7 +13561,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13677,7 +13680,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13794,7 +13797,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13856,7 +13859,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13909,7 +13912,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14026,7 +14029,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14145,7 +14148,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14264,7 +14267,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14290,16 +14293,16 @@
         <v>186</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14328,7 +14331,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -14346,7 +14349,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14367,10 +14370,10 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14381,7 +14384,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14496,7 +14499,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14613,7 +14616,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14677,7 +14680,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14730,7 +14733,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14845,7 +14848,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14962,7 +14965,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15081,7 +15084,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15198,7 +15201,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15260,7 +15263,7 @@
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>79</v>
@@ -15313,7 +15316,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15430,7 +15433,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15549,7 +15552,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15668,7 +15671,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15691,16 +15694,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15750,7 +15753,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15768,24 +15771,24 @@
         <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15808,16 +15811,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15867,7 +15870,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15885,24 +15888,24 @@
         <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15925,19 +15928,19 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15986,7 +15989,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15998,7 +16001,7 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>79</v>
@@ -16007,10 +16010,10 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -16021,7 +16024,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16136,7 +16139,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16253,11 +16256,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16279,10 +16282,10 @@
         <v>135</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>138</v>
@@ -16337,7 +16340,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16372,7 +16375,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16395,13 +16398,13 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16452,7 +16455,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16461,7 +16464,7 @@
         <v>89</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>101</v>
@@ -16473,10 +16476,10 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16487,7 +16490,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16510,13 +16513,13 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16567,7 +16570,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16576,7 +16579,7 @@
         <v>89</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>101</v>
@@ -16588,10 +16591,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16602,7 +16605,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16628,16 +16631,16 @@
         <v>186</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16665,10 +16668,10 @@
         <v>113</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
@@ -16686,7 +16689,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16704,13 +16707,13 @@
         <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16721,7 +16724,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16747,16 +16750,16 @@
         <v>186</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16781,13 +16784,13 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
@@ -16805,7 +16808,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16823,13 +16826,13 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16840,7 +16843,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16863,17 +16866,17 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16922,7 +16925,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16946,7 +16949,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16957,7 +16960,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16983,10 +16986,10 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17037,7 +17040,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -17058,10 +17061,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17072,7 +17075,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17095,16 +17098,16 @@
         <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -17154,7 +17157,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -17175,10 +17178,10 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -17189,7 +17192,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17212,16 +17215,16 @@
         <v>90</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17271,7 +17274,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17292,10 +17295,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17306,7 +17309,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17314,7 +17317,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>78</v>
@@ -17329,19 +17332,19 @@
         <v>90</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>79</v>
@@ -17378,7 +17381,7 @@
         <v>79</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
@@ -17388,7 +17391,7 @@
         <v>194</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17400,7 +17403,7 @@
         <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>79</v>
@@ -17409,10 +17412,10 @@
         <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17423,7 +17426,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17538,7 +17541,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17655,11 +17658,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17681,10 +17684,10 @@
         <v>135</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>138</v>
@@ -17739,7 +17742,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17774,7 +17777,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17800,16 +17803,16 @@
         <v>186</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -17858,7 +17861,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>89</v>
@@ -17876,7 +17879,7 @@
         <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>278</v>
@@ -17893,7 +17896,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17916,19 +17919,19 @@
         <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
@@ -17956,10 +17959,10 @@
         <v>178</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>79</v>
@@ -17977,7 +17980,7 @@
         <v>79</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17986,7 +17989,7 @@
         <v>89</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>101</v>
@@ -17995,24 +17998,24 @@
         <v>79</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18038,16 +18041,16 @@
         <v>186</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>79</v>
@@ -18075,10 +18078,10 @@
         <v>273</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
@@ -18096,7 +18099,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18105,7 +18108,7 @@
         <v>89</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>101</v>
@@ -18120,7 +18123,7 @@
         <v>132</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -18131,11 +18134,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18157,16 +18160,16 @@
         <v>186</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>79</v>
@@ -18194,10 +18197,10 @@
         <v>273</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>79</v>
@@ -18215,7 +18218,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18233,24 +18236,24 @@
         <v>79</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18276,16 +18279,16 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18334,7 +18337,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -18355,10 +18358,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18369,10 +18372,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
@@ -18394,19 +18397,19 @@
         <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18455,7 +18458,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18467,7 +18470,7 @@
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>79</v>
@@ -18476,10 +18479,10 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18490,7 +18493,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18605,7 +18608,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18722,11 +18725,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18748,10 +18751,10 @@
         <v>135</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>138</v>
@@ -18806,7 +18809,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18841,11 +18844,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18867,16 +18870,16 @@
         <v>186</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
@@ -18925,7 +18928,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>89</v>
@@ -18943,7 +18946,7 @@
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>278</v>
@@ -18960,7 +18963,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19075,7 +19078,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19192,7 +19195,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19218,10 +19221,10 @@
         <v>209</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>212</v>
@@ -19309,10 +19312,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19337,10 +19340,10 @@
         <v>209</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>212</v>
@@ -19430,7 +19433,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19545,7 +19548,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19662,7 +19665,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19781,7 +19784,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19898,7 +19901,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19938,7 +19941,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>79</v>
@@ -20015,7 +20018,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20132,7 +20135,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20251,10 +20254,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20279,10 +20282,10 @@
         <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>212</v>
@@ -20372,7 +20375,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20487,7 +20490,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20604,7 +20607,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20723,7 +20726,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20840,7 +20843,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20880,7 +20883,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20957,7 +20960,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21074,7 +21077,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21193,7 +21196,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21312,7 +21315,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21335,19 +21338,19 @@
         <v>90</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>79</v>
@@ -21375,10 +21378,10 @@
         <v>178</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>79</v>
@@ -21396,7 +21399,7 @@
         <v>79</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -21405,7 +21408,7 @@
         <v>89</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>101</v>
@@ -21414,24 +21417,24 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21546,7 +21549,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21663,7 +21666,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21686,19 +21689,19 @@
         <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21747,7 +21750,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21768,10 +21771,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21782,7 +21785,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21808,20 +21811,20 @@
         <v>109</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P164" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21845,10 +21848,10 @@
         <v>178</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>79</v>
@@ -21866,7 +21869,7 @@
         <v>79</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21887,10 +21890,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21901,7 +21904,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21927,14 +21930,14 @@
         <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21983,7 +21986,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -22004,10 +22007,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22018,7 +22021,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22044,21 +22047,21 @@
         <v>103</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R166" t="s" s="2">
         <v>79</v>
@@ -22100,7 +22103,7 @@
         <v>79</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -22109,7 +22112,7 @@
         <v>89</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>101</v>
@@ -22121,10 +22124,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22135,7 +22138,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22161,23 +22164,23 @@
         <v>109</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>79</v>
@@ -22219,7 +22222,7 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22240,10 +22243,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22254,7 +22257,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22280,16 +22283,16 @@
         <v>186</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>79</v>
@@ -22317,10 +22320,10 @@
         <v>273</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
@@ -22338,7 +22341,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22347,7 +22350,7 @@
         <v>89</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>101</v>
@@ -22362,7 +22365,7 @@
         <v>132</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22373,11 +22376,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22399,16 +22402,16 @@
         <v>186</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>79</v>
@@ -22436,10 +22439,10 @@
         <v>273</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
@@ -22457,7 +22460,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22475,24 +22478,24 @@
         <v>79</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22518,16 +22521,16 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22576,7 +22579,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22597,10 +22600,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22611,10 +22614,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>79</v>
@@ -22636,19 +22639,19 @@
         <v>90</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22697,7 +22700,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22709,7 +22712,7 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>79</v>
@@ -22718,10 +22721,10 @@
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22732,7 +22735,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22847,7 +22850,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22964,11 +22967,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22990,10 +22993,10 @@
         <v>135</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>138</v>
@@ -23048,7 +23051,7 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -23083,7 +23086,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23109,16 +23112,16 @@
         <v>186</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
@@ -23167,7 +23170,7 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>89</v>
@@ -23185,7 +23188,7 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>278</v>
@@ -23202,7 +23205,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23317,7 +23320,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23434,7 +23437,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23460,10 +23463,10 @@
         <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>212</v>
@@ -23551,10 +23554,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
@@ -23579,10 +23582,10 @@
         <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>212</v>
@@ -23672,7 +23675,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23787,7 +23790,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23904,7 +23907,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24023,7 +24026,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24140,7 +24143,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24180,7 +24183,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24257,7 +24260,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24374,7 +24377,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24493,10 +24496,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
@@ -24521,10 +24524,10 @@
         <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>212</v>
@@ -24614,7 +24617,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24729,7 +24732,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24846,7 +24849,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24965,7 +24968,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25082,7 +25085,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25122,7 +25125,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>79</v>
@@ -25199,7 +25202,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25316,7 +25319,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25435,7 +25438,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25554,7 +25557,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25577,19 +25580,19 @@
         <v>90</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>79</v>
@@ -25617,10 +25620,10 @@
         <v>178</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>79</v>
@@ -25638,7 +25641,7 @@
         <v>79</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>77</v>
@@ -25647,7 +25650,7 @@
         <v>89</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>101</v>
@@ -25656,24 +25659,24 @@
         <v>79</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25788,7 +25791,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25905,7 +25908,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25928,19 +25931,19 @@
         <v>90</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -25989,7 +25992,7 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -26010,10 +26013,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26024,7 +26027,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26050,20 +26053,20 @@
         <v>109</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P200" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>79</v>
@@ -26087,10 +26090,10 @@
         <v>178</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>79</v>
@@ -26108,7 +26111,7 @@
         <v>79</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -26129,10 +26132,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26143,7 +26146,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26169,14 +26172,14 @@
         <v>91</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26225,7 +26228,7 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -26246,10 +26249,10 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26260,7 +26263,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26286,21 +26289,21 @@
         <v>103</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R202" t="s" s="2">
         <v>79</v>
@@ -26342,7 +26345,7 @@
         <v>79</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -26351,7 +26354,7 @@
         <v>89</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>101</v>
@@ -26363,10 +26366,10 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>79</v>
@@ -26377,7 +26380,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26403,23 +26406,23 @@
         <v>109</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>79</v>
@@ -26461,7 +26464,7 @@
         <v>79</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26482,10 +26485,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26496,7 +26499,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26522,16 +26525,16 @@
         <v>186</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>79</v>
@@ -26559,10 +26562,10 @@
         <v>273</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>79</v>
@@ -26580,7 +26583,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26589,7 +26592,7 @@
         <v>89</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>101</v>
@@ -26604,7 +26607,7 @@
         <v>132</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26615,11 +26618,11 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26641,16 +26644,16 @@
         <v>186</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>79</v>
@@ -26678,10 +26681,10 @@
         <v>273</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>79</v>
@@ -26699,7 +26702,7 @@
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>77</v>
@@ -26717,24 +26720,24 @@
         <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26760,16 +26763,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
@@ -26818,7 +26821,7 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
@@ -26839,10 +26842,10 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="723">
   <si>
     <t>Property</t>
   </si>
@@ -1411,9 +1411,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -11751,7 +11748,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11804,7 +11801,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11921,7 +11918,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12036,7 +12033,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12153,7 +12150,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12270,7 +12267,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12293,19 +12290,19 @@
         <v>90</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12342,26 +12339,26 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -12370,27 +12367,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12412,19 +12409,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12473,7 +12470,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12482,7 +12479,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12491,24 +12488,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12534,16 +12531,16 @@
         <v>186</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12571,37 +12568,37 @@
         <v>273</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH85" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>101</v>
@@ -12616,7 +12613,7 @@
         <v>132</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12627,11 +12624,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12653,16 +12650,16 @@
         <v>186</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12690,11 +12687,11 @@
         <v>273</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12711,7 +12708,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12729,24 +12726,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12769,19 +12766,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12830,7 +12827,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12851,10 +12848,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12865,7 +12862,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12891,13 +12888,13 @@
         <v>186</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12927,7 +12924,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12945,7 +12942,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12963,24 +12960,24 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13095,7 +13092,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13212,7 +13209,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13276,7 +13273,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -13329,7 +13326,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13444,7 +13441,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13561,7 +13558,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13680,7 +13677,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13797,7 +13794,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13859,7 +13856,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13912,7 +13909,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14029,7 +14026,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14148,7 +14145,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14267,7 +14264,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14293,16 +14290,16 @@
         <v>186</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14331,7 +14328,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -14349,7 +14346,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14370,10 +14367,10 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14384,7 +14381,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14499,7 +14496,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14616,7 +14613,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14680,7 +14677,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14733,7 +14730,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14848,7 +14845,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14965,7 +14962,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15084,7 +15081,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15201,7 +15198,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15263,7 +15260,7 @@
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>79</v>
@@ -15316,7 +15313,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15433,7 +15430,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15552,7 +15549,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15671,7 +15668,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15694,16 +15691,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15753,7 +15750,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15771,24 +15768,24 @@
         <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15811,16 +15808,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15870,7 +15867,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15888,24 +15885,24 @@
         <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL113" t="s" s="2">
+      <c r="AM113" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15928,19 +15925,19 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="L114" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15989,7 +15986,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -16001,19 +15998,19 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AJ114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL114" t="s" s="2">
+      <c r="AM114" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -16024,7 +16021,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16139,7 +16136,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16256,11 +16253,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16282,10 +16279,10 @@
         <v>135</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>138</v>
@@ -16340,7 +16337,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16372,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16398,13 +16395,13 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16455,7 +16452,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16464,7 +16461,7 @@
         <v>89</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>101</v>
@@ -16476,10 +16473,10 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16490,7 +16487,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16513,13 +16510,13 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16570,7 +16567,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16579,7 +16576,7 @@
         <v>89</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>101</v>
@@ -16591,10 +16588,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16605,7 +16602,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16631,16 +16628,16 @@
         <v>186</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16668,11 +16665,11 @@
         <v>113</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Y120" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
       </c>
@@ -16689,7 +16686,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16707,13 +16704,13 @@
         <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AL120" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="AM120" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16724,7 +16721,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16750,16 +16747,16 @@
         <v>186</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16784,14 +16781,14 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="X121" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="X121" t="s" s="2">
+      <c r="Y121" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y121" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16826,13 +16823,13 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AL121" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="AM121" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16843,7 +16840,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16866,17 +16863,17 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="L122" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16925,7 +16922,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16949,7 +16946,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16960,7 +16957,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16986,10 +16983,10 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17040,7 +17037,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -17061,10 +17058,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17075,7 +17072,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17098,16 +17095,16 @@
         <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -17157,7 +17154,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -17178,10 +17175,10 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -17192,7 +17189,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17215,16 +17212,16 @@
         <v>90</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17274,7 +17271,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17295,10 +17292,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17309,7 +17306,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17317,7 +17314,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>78</v>
@@ -17332,19 +17329,19 @@
         <v>90</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L126" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>79</v>
@@ -17381,7 +17378,7 @@
         <v>79</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
@@ -17391,7 +17388,7 @@
         <v>194</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17403,19 +17400,19 @@
         <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17426,7 +17423,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17541,7 +17538,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17658,11 +17655,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17684,10 +17681,10 @@
         <v>135</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>138</v>
@@ -17742,7 +17739,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17777,7 +17774,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17803,16 +17800,16 @@
         <v>186</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -17861,7 +17858,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>89</v>
@@ -17879,7 +17876,7 @@
         <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>278</v>
@@ -17896,7 +17893,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17919,19 +17916,19 @@
         <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M131" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
@@ -17959,37 +17956,37 @@
         <v>178</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y131" t="s" s="2">
+      <c r="Z131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH131" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>101</v>
@@ -17998,24 +17995,24 @@
         <v>79</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM131" t="s" s="2">
+      <c r="AN131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO131" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18041,16 +18038,16 @@
         <v>186</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M132" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N132" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>79</v>
@@ -18078,11 +18075,11 @@
         <v>273</v>
       </c>
       <c r="X132" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y132" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y132" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
       </c>
@@ -18099,7 +18096,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18108,7 +18105,7 @@
         <v>89</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>101</v>
@@ -18123,7 +18120,7 @@
         <v>132</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -18134,11 +18131,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18160,16 +18157,16 @@
         <v>186</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>79</v>
@@ -18197,11 +18194,11 @@
         <v>273</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y133" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z133" t="s" s="2">
         <v>79</v>
       </c>
@@ -18218,7 +18215,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18236,24 +18233,24 @@
         <v>79</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL133" t="s" s="2">
+      <c r="AM133" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM133" t="s" s="2">
+      <c r="AN133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO133" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18279,16 +18276,16 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L134" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M134" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18337,7 +18334,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -18358,10 +18355,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18372,10 +18369,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
@@ -18397,19 +18394,19 @@
         <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L135" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18458,7 +18455,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18470,19 +18467,19 @@
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL135" t="s" s="2">
+      <c r="AM135" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18493,7 +18490,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18608,7 +18605,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18725,11 +18722,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18751,10 +18748,10 @@
         <v>135</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>138</v>
@@ -18809,7 +18806,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18844,11 +18841,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18870,16 +18867,16 @@
         <v>186</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
@@ -18928,7 +18925,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>89</v>
@@ -18946,7 +18943,7 @@
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>278</v>
@@ -18963,7 +18960,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19078,7 +19075,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19195,7 +19192,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19221,10 +19218,10 @@
         <v>209</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>212</v>
@@ -19312,10 +19309,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19340,10 +19337,10 @@
         <v>209</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>212</v>
@@ -19433,7 +19430,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19548,7 +19545,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19665,7 +19662,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19784,7 +19781,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19901,7 +19898,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19941,7 +19938,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>79</v>
@@ -20018,7 +20015,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20135,7 +20132,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20254,10 +20251,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20282,10 +20279,10 @@
         <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>212</v>
@@ -20375,7 +20372,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20490,7 +20487,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20607,7 +20604,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20726,7 +20723,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20843,7 +20840,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20883,7 +20880,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20960,7 +20957,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21077,7 +21074,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21196,7 +21193,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21315,7 +21312,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21338,19 +21335,19 @@
         <v>90</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M160" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N160" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>79</v>
@@ -21378,37 +21375,37 @@
         <v>178</v>
       </c>
       <c r="X160" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y160" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y160" t="s" s="2">
+      <c r="Z160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH160" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>101</v>
@@ -21417,24 +21414,24 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM160" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM160" t="s" s="2">
+      <c r="AN160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO160" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21549,7 +21546,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21666,7 +21663,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21689,19 +21686,19 @@
         <v>90</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21750,7 +21747,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21771,10 +21768,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM163" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21785,7 +21782,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21811,20 +21808,20 @@
         <v>109</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P164" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21848,28 +21845,28 @@
         <v>178</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="Y164" t="s" s="2">
+      <c r="Z164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21890,10 +21887,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AM164" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21904,7 +21901,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21930,14 +21927,14 @@
         <v>91</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21986,7 +21983,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -22007,10 +22004,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM165" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22021,7 +22018,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22047,72 +22044,72 @@
         <v>103</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE166" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="R166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE166" t="s" s="2">
+      <c r="AF166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH166" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>101</v>
@@ -22124,10 +22121,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22138,7 +22135,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22164,65 +22161,65 @@
         <v>109</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="L167" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE167" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22243,10 +22240,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22257,7 +22254,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22283,16 +22280,16 @@
         <v>186</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M168" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N168" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>79</v>
@@ -22320,11 +22317,11 @@
         <v>273</v>
       </c>
       <c r="X168" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y168" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y168" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
       </c>
@@ -22341,7 +22338,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22350,7 +22347,7 @@
         <v>89</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>101</v>
@@ -22365,7 +22362,7 @@
         <v>132</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22376,11 +22373,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22402,16 +22399,16 @@
         <v>186</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>79</v>
@@ -22439,11 +22436,11 @@
         <v>273</v>
       </c>
       <c r="X169" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y169" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y169" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
       </c>
@@ -22460,7 +22457,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22478,24 +22475,24 @@
         <v>79</v>
       </c>
       <c r="AK169" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL169" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL169" t="s" s="2">
+      <c r="AM169" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM169" t="s" s="2">
+      <c r="AN169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO169" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22521,16 +22518,16 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L170" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M170" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22579,7 +22576,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22600,10 +22597,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM170" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22614,10 +22611,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>79</v>
@@ -22639,19 +22636,19 @@
         <v>90</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L171" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22700,7 +22697,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22712,19 +22709,19 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL171" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL171" t="s" s="2">
+      <c r="AM171" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22735,7 +22732,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22850,7 +22847,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22967,11 +22964,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22993,10 +22990,10 @@
         <v>135</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>138</v>
@@ -23051,7 +23048,7 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -23086,7 +23083,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23112,16 +23109,16 @@
         <v>186</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
@@ -23170,7 +23167,7 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>89</v>
@@ -23188,7 +23185,7 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>278</v>
@@ -23205,7 +23202,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23320,7 +23317,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23437,7 +23434,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23463,10 +23460,10 @@
         <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>212</v>
@@ -23554,10 +23551,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
@@ -23582,10 +23579,10 @@
         <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>212</v>
@@ -23675,7 +23672,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23790,7 +23787,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23907,7 +23904,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24026,7 +24023,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24143,7 +24140,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24183,7 +24180,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24260,7 +24257,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24377,7 +24374,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24496,10 +24493,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
@@ -24524,10 +24521,10 @@
         <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>212</v>
@@ -24617,7 +24614,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24732,7 +24729,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24849,7 +24846,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24968,7 +24965,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25085,7 +25082,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25125,7 +25122,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>79</v>
@@ -25202,7 +25199,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25319,7 +25316,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25438,7 +25435,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25557,7 +25554,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25580,19 +25577,19 @@
         <v>90</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="M196" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M196" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N196" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>79</v>
@@ -25620,37 +25617,37 @@
         <v>178</v>
       </c>
       <c r="X196" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y196" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y196" t="s" s="2">
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH196" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>101</v>
@@ -25659,24 +25656,24 @@
         <v>79</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL196" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM196" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM196" t="s" s="2">
+      <c r="AN196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO196" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO196" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25791,7 +25788,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25908,7 +25905,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25931,19 +25928,19 @@
         <v>90</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K199" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="L199" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -25992,7 +25989,7 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -26013,10 +26010,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM199" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AM199" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26027,7 +26024,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26053,20 +26050,20 @@
         <v>109</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P200" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P200" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>79</v>
@@ -26090,28 +26087,28 @@
         <v>178</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="Y200" t="s" s="2">
+      <c r="Z200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -26132,10 +26129,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AM200" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26146,7 +26143,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26172,14 +26169,14 @@
         <v>91</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26228,7 +26225,7 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -26249,10 +26246,10 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM201" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AM201" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26263,7 +26260,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26289,72 +26286,72 @@
         <v>103</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="R202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE202" t="s" s="2">
+      <c r="AF202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH202" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>101</v>
@@ -26366,10 +26363,10 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>79</v>
@@ -26380,7 +26377,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26406,65 +26403,65 @@
         <v>109</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="L203" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE203" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26485,10 +26482,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26499,7 +26496,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26525,16 +26522,16 @@
         <v>186</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M204" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N204" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>79</v>
@@ -26562,11 +26559,11 @@
         <v>273</v>
       </c>
       <c r="X204" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y204" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y204" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z204" t="s" s="2">
         <v>79</v>
       </c>
@@ -26583,7 +26580,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26592,7 +26589,7 @@
         <v>89</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>101</v>
@@ -26607,7 +26604,7 @@
         <v>132</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26618,11 +26615,11 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26644,16 +26641,16 @@
         <v>186</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>79</v>
@@ -26681,11 +26678,11 @@
         <v>273</v>
       </c>
       <c r="X205" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y205" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y205" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z205" t="s" s="2">
         <v>79</v>
       </c>
@@ -26702,7 +26699,7 @@
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>77</v>
@@ -26720,24 +26717,24 @@
         <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL205" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL205" t="s" s="2">
+      <c r="AM205" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM205" t="s" s="2">
+      <c r="AN205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO205" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO205" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26763,16 +26760,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L206" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M206" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
@@ -26821,7 +26818,7 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
@@ -26842,10 +26839,10 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM206" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM206" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="723">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1411,9 +1411,6 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
-  </si>
-  <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -11751,7 +11748,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11804,7 +11801,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11921,7 +11918,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12036,7 +12033,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12153,7 +12150,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12270,7 +12267,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12293,19 +12290,19 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12342,26 +12339,26 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12370,27 +12367,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12412,19 +12409,19 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12473,7 +12470,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12482,7 +12479,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12491,24 +12488,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12534,16 +12531,16 @@
         <v>185</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12571,37 +12568,37 @@
         <v>273</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH85" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>100</v>
@@ -12616,7 +12613,7 @@
         <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12627,11 +12624,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12653,16 +12650,16 @@
         <v>185</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12690,11 +12687,11 @@
         <v>273</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12711,7 +12708,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12729,24 +12726,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12769,19 +12766,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12830,7 +12827,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12851,10 +12848,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12865,7 +12862,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12891,13 +12888,13 @@
         <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12927,7 +12924,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12945,7 +12942,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12963,24 +12960,24 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO88" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13095,7 +13092,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13212,7 +13209,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13276,7 +13273,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -13329,7 +13326,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13444,7 +13441,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13561,7 +13558,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13680,7 +13677,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13797,7 +13794,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13859,7 +13856,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13912,7 +13909,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14029,7 +14026,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14148,7 +14145,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14267,7 +14264,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14293,16 +14290,16 @@
         <v>185</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14331,7 +14328,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -14349,7 +14346,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14370,10 +14367,10 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14384,7 +14381,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14499,7 +14496,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14616,7 +14613,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14680,7 +14677,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14733,7 +14730,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14848,7 +14845,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14965,7 +14962,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15084,7 +15081,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15201,7 +15198,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15263,7 +15260,7 @@
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>79</v>
@@ -15316,7 +15313,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15433,7 +15430,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15552,7 +15549,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15671,7 +15668,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15694,16 +15691,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K112" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="L112" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15753,7 +15750,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15771,24 +15768,24 @@
         <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15811,16 +15808,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15870,7 +15867,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15888,24 +15885,24 @@
         <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AL113" t="s" s="2">
+      <c r="AM113" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15928,19 +15925,19 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="L114" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15989,7 +15986,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -16001,19 +15998,19 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AJ114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL114" t="s" s="2">
+      <c r="AM114" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -16024,7 +16021,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16139,7 +16136,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16256,11 +16253,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16282,10 +16279,10 @@
         <v>134</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>137</v>
@@ -16340,7 +16337,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16372,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16398,13 +16395,13 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="K118" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="L118" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16455,7 +16452,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16464,7 +16461,7 @@
         <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -16476,10 +16473,10 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16490,7 +16487,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16513,13 +16510,13 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16570,7 +16567,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16579,7 +16576,7 @@
         <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>100</v>
@@ -16591,10 +16588,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16605,7 +16602,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16631,16 +16628,16 @@
         <v>185</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16668,11 +16665,11 @@
         <v>112</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Y120" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
       </c>
@@ -16689,7 +16686,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16707,13 +16704,13 @@
         <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AL120" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="AM120" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16724,7 +16721,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16750,16 +16747,16 @@
         <v>185</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16784,14 +16781,14 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="X121" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="X121" t="s" s="2">
+      <c r="Y121" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="Y121" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16808,7 +16805,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16826,13 +16823,13 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AL121" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="AM121" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16843,7 +16840,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16866,17 +16863,17 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="L122" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16925,7 +16922,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16949,7 +16946,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16960,7 +16957,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16986,10 +16983,10 @@
         <v>198</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17040,7 +17037,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -17061,10 +17058,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17075,7 +17072,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17098,16 +17095,16 @@
         <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -17157,7 +17154,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -17178,10 +17175,10 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -17192,7 +17189,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17215,16 +17212,16 @@
         <v>89</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17274,7 +17271,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17295,10 +17292,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17309,7 +17306,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17317,7 +17314,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>78</v>
@@ -17332,19 +17329,19 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L126" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>79</v>
@@ -17381,7 +17378,7 @@
         <v>79</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
@@ -17391,7 +17388,7 @@
         <v>193</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17403,19 +17400,19 @@
         <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17426,7 +17423,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17541,7 +17538,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17658,11 +17655,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17684,10 +17681,10 @@
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
@@ -17742,7 +17739,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17777,7 +17774,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17803,16 +17800,16 @@
         <v>185</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -17861,7 +17858,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>88</v>
@@ -17879,7 +17876,7 @@
         <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>278</v>
@@ -17896,7 +17893,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17919,19 +17916,19 @@
         <v>89</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M131" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N131" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
@@ -17959,37 +17956,37 @@
         <v>177</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y131" t="s" s="2">
+      <c r="Z131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH131" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>100</v>
@@ -17998,24 +17995,24 @@
         <v>79</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM131" t="s" s="2">
+      <c r="AN131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO131" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18041,16 +18038,16 @@
         <v>185</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M132" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N132" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>79</v>
@@ -18078,11 +18075,11 @@
         <v>273</v>
       </c>
       <c r="X132" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y132" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y132" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
       </c>
@@ -18099,7 +18096,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18108,7 +18105,7 @@
         <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>100</v>
@@ -18123,7 +18120,7 @@
         <v>131</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -18134,11 +18131,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18160,16 +18157,16 @@
         <v>185</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>79</v>
@@ -18197,11 +18194,11 @@
         <v>273</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y133" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z133" t="s" s="2">
         <v>79</v>
       </c>
@@ -18218,7 +18215,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18236,24 +18233,24 @@
         <v>79</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL133" t="s" s="2">
+      <c r="AM133" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM133" t="s" s="2">
+      <c r="AN133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO133" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18279,16 +18276,16 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L134" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M134" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18337,7 +18334,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -18358,10 +18355,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM134" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18372,10 +18369,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
@@ -18397,19 +18394,19 @@
         <v>89</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L135" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18458,7 +18455,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18470,19 +18467,19 @@
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL135" t="s" s="2">
+      <c r="AM135" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18493,7 +18490,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18608,7 +18605,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18725,11 +18722,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18751,10 +18748,10 @@
         <v>134</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>137</v>
@@ -18809,7 +18806,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18844,11 +18841,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18870,16 +18867,16 @@
         <v>185</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
@@ -18928,7 +18925,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>88</v>
@@ -18946,7 +18943,7 @@
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>278</v>
@@ -18963,7 +18960,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19078,7 +19075,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19195,7 +19192,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19221,10 +19218,10 @@
         <v>209</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>212</v>
@@ -19312,10 +19309,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19340,10 +19337,10 @@
         <v>209</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>212</v>
@@ -19433,7 +19430,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19548,7 +19545,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19665,7 +19662,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19784,7 +19781,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19901,7 +19898,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19941,7 +19938,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>79</v>
@@ -20018,7 +20015,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20135,7 +20132,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20254,10 +20251,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20282,10 +20279,10 @@
         <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>212</v>
@@ -20375,7 +20372,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20490,7 +20487,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20607,7 +20604,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20726,7 +20723,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20843,7 +20840,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20883,7 +20880,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20960,7 +20957,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21077,7 +21074,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21196,7 +21193,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21315,7 +21312,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21338,19 +21335,19 @@
         <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="M160" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M160" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N160" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>79</v>
@@ -21378,37 +21375,37 @@
         <v>177</v>
       </c>
       <c r="X160" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y160" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y160" t="s" s="2">
+      <c r="Z160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH160" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -21417,24 +21414,24 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM160" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM160" t="s" s="2">
+      <c r="AN160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO160" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21549,7 +21546,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21666,7 +21663,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21689,19 +21686,19 @@
         <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21750,7 +21747,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21771,10 +21768,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM163" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21785,7 +21782,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21811,20 +21808,20 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P164" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21848,28 +21845,28 @@
         <v>177</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="Y164" t="s" s="2">
+      <c r="Z164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE164" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21890,10 +21887,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AM164" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21904,7 +21901,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21930,14 +21927,14 @@
         <v>198</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21986,7 +21983,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -22007,10 +22004,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM165" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22021,7 +22018,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22047,72 +22044,72 @@
         <v>102</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE166" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="R166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE166" t="s" s="2">
+      <c r="AF166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH166" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>100</v>
@@ -22124,10 +22121,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22138,7 +22135,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22164,65 +22161,65 @@
         <v>108</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="L167" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE167" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22243,10 +22240,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22257,7 +22254,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22283,16 +22280,16 @@
         <v>185</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="M168" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M168" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N168" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>79</v>
@@ -22320,11 +22317,11 @@
         <v>273</v>
       </c>
       <c r="X168" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y168" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y168" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
       </c>
@@ -22341,7 +22338,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22350,7 +22347,7 @@
         <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>100</v>
@@ -22365,7 +22362,7 @@
         <v>131</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22376,11 +22373,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22402,16 +22399,16 @@
         <v>185</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>79</v>
@@ -22439,11 +22436,11 @@
         <v>273</v>
       </c>
       <c r="X169" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y169" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y169" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
       </c>
@@ -22460,7 +22457,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22478,24 +22475,24 @@
         <v>79</v>
       </c>
       <c r="AK169" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL169" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL169" t="s" s="2">
+      <c r="AM169" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM169" t="s" s="2">
+      <c r="AN169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO169" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22521,16 +22518,16 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L170" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M170" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22579,7 +22576,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22600,10 +22597,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM170" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22614,10 +22611,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>79</v>
@@ -22639,19 +22636,19 @@
         <v>89</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L171" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22700,7 +22697,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22712,19 +22709,19 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL171" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AJ171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL171" t="s" s="2">
+      <c r="AM171" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22735,7 +22732,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22850,7 +22847,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22967,11 +22964,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22993,10 +22990,10 @@
         <v>134</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>137</v>
@@ -23051,7 +23048,7 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -23086,7 +23083,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23112,16 +23109,16 @@
         <v>185</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
@@ -23170,7 +23167,7 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>88</v>
@@ -23188,7 +23185,7 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>278</v>
@@ -23205,7 +23202,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23320,7 +23317,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23437,7 +23434,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23463,10 +23460,10 @@
         <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>212</v>
@@ -23554,10 +23551,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
@@ -23582,10 +23579,10 @@
         <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>212</v>
@@ -23675,7 +23672,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23790,7 +23787,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23907,7 +23904,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24026,7 +24023,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24143,7 +24140,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24183,7 +24180,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24260,7 +24257,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24377,7 +24374,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24496,10 +24493,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
@@ -24524,10 +24521,10 @@
         <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>212</v>
@@ -24617,7 +24614,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24732,7 +24729,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24849,7 +24846,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24968,7 +24965,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25085,7 +25082,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25125,7 +25122,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>79</v>
@@ -25202,7 +25199,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25319,7 +25316,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25438,7 +25435,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25557,7 +25554,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25580,19 +25577,19 @@
         <v>89</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="M196" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M196" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="N196" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>79</v>
@@ -25620,37 +25617,37 @@
         <v>177</v>
       </c>
       <c r="X196" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Y196" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Y196" t="s" s="2">
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH196" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>100</v>
@@ -25659,24 +25656,24 @@
         <v>79</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AL196" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM196" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM196" t="s" s="2">
+      <c r="AN196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO196" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO196" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25791,7 +25788,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25908,7 +25905,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25931,19 +25928,19 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K199" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="K199" t="s" s="2">
+      <c r="L199" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -25992,7 +25989,7 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -26013,10 +26010,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM199" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AM199" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26027,7 +26024,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26053,20 +26050,20 @@
         <v>108</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P200" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P200" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>79</v>
@@ -26090,28 +26087,28 @@
         <v>177</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="Y200" t="s" s="2">
+      <c r="Z200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -26132,10 +26129,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AM200" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="AM200" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26146,7 +26143,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26172,14 +26169,14 @@
         <v>198</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26228,7 +26225,7 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -26249,10 +26246,10 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AM201" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="AM201" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26263,7 +26260,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26289,72 +26286,72 @@
         <v>102</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="R202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE202" t="s" s="2">
+      <c r="AF202" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH202" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>100</v>
@@ -26366,10 +26363,10 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>79</v>
@@ -26380,7 +26377,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26406,65 +26403,65 @@
         <v>108</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="L203" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="R203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE203" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="R203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26485,10 +26482,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26499,7 +26496,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26525,16 +26522,16 @@
         <v>185</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M204" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N204" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>79</v>
@@ -26562,11 +26559,11 @@
         <v>273</v>
       </c>
       <c r="X204" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y204" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y204" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z204" t="s" s="2">
         <v>79</v>
       </c>
@@ -26583,7 +26580,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26592,7 +26589,7 @@
         <v>88</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>100</v>
@@ -26607,7 +26604,7 @@
         <v>131</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26618,11 +26615,11 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26644,16 +26641,16 @@
         <v>185</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>79</v>
@@ -26681,11 +26678,11 @@
         <v>273</v>
       </c>
       <c r="X205" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y205" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Y205" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="Z205" t="s" s="2">
         <v>79</v>
       </c>
@@ -26702,7 +26699,7 @@
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>77</v>
@@ -26720,24 +26717,24 @@
         <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL205" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL205" t="s" s="2">
+      <c r="AM205" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM205" t="s" s="2">
+      <c r="AN205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO205" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN205" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO205" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26763,16 +26760,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L206" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="M206" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
@@ -26821,7 +26818,7 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
@@ -26842,10 +26839,10 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM206" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM206" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="724">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -1411,6 +1411,9 @@
   </si>
   <si>
     <t>Observation.performer.identifier.system</t>
+  </si>
+  <si>
+    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>
@@ -11748,7 +11751,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11801,7 +11804,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11918,7 +11921,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12033,7 +12036,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12150,7 +12153,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12267,7 +12270,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12290,19 +12293,19 @@
         <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -12339,17 +12342,17 @@
         <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12358,7 +12361,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -12367,27 +12370,27 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>79</v>
@@ -12409,19 +12412,19 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12470,7 +12473,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12479,7 +12482,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -12488,24 +12491,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12531,16 +12534,16 @@
         <v>185</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12568,10 +12571,10 @@
         <v>273</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12589,7 +12592,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12598,7 +12601,7 @@
         <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>100</v>
@@ -12613,7 +12616,7 @@
         <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12624,11 +12627,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12650,16 +12653,16 @@
         <v>185</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12687,10 +12690,10 @@
         <v>273</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12711,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12726,24 +12729,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12766,19 +12769,19 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12827,7 +12830,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12848,10 +12851,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12862,7 +12865,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12888,13 +12891,13 @@
         <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12924,7 +12927,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12942,7 +12945,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12960,24 +12963,24 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13092,7 +13095,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13209,7 +13212,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13273,7 +13276,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -13326,7 +13329,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13441,7 +13444,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13558,7 +13561,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13677,7 +13680,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13794,7 +13797,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13856,7 +13859,7 @@
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13909,7 +13912,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14026,7 +14029,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14145,7 +14148,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14264,7 +14267,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14290,16 +14293,16 @@
         <v>185</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14328,7 +14331,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -14346,7 +14349,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14367,10 +14370,10 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14381,7 +14384,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14496,7 +14499,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14613,7 +14616,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14677,7 +14680,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14730,7 +14733,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14845,7 +14848,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14962,7 +14965,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15081,7 +15084,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15198,7 +15201,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15260,7 +15263,7 @@
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>79</v>
@@ -15313,7 +15316,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15430,7 +15433,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15549,7 +15552,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15668,7 +15671,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15691,16 +15694,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15750,7 +15753,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15768,24 +15771,24 @@
         <v>79</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15808,16 +15811,16 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15867,7 +15870,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15885,24 +15888,24 @@
         <v>79</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15925,19 +15928,19 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15986,7 +15989,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
@@ -15998,7 +16001,7 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>79</v>
@@ -16007,10 +16010,10 @@
         <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -16021,7 +16024,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16136,7 +16139,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16253,11 +16256,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -16279,10 +16282,10 @@
         <v>134</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>137</v>
@@ -16337,7 +16340,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16372,7 +16375,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16395,13 +16398,13 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16452,7 +16455,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16461,7 +16464,7 @@
         <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
@@ -16473,10 +16476,10 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16487,7 +16490,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16510,13 +16513,13 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16567,7 +16570,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16576,7 +16579,7 @@
         <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>100</v>
@@ -16588,10 +16591,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16602,7 +16605,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16628,16 +16631,16 @@
         <v>185</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16665,10 +16668,10 @@
         <v>112</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
@@ -16686,7 +16689,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -16704,13 +16707,13 @@
         <v>79</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16721,7 +16724,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16747,16 +16750,16 @@
         <v>185</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16781,13 +16784,13 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>79</v>
@@ -16805,7 +16808,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16823,13 +16826,13 @@
         <v>79</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16840,7 +16843,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16863,17 +16866,17 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16922,7 +16925,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -16946,7 +16949,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16957,7 +16960,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16983,10 +16986,10 @@
         <v>198</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17037,7 +17040,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -17058,10 +17061,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17072,7 +17075,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17095,16 +17098,16 @@
         <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -17154,7 +17157,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -17175,10 +17178,10 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -17189,7 +17192,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17212,16 +17215,16 @@
         <v>89</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17271,7 +17274,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -17292,10 +17295,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17306,7 +17309,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17314,7 +17317,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>78</v>
@@ -17329,19 +17332,19 @@
         <v>89</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>79</v>
@@ -17378,7 +17381,7 @@
         <v>79</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AB126" s="2"/>
       <c r="AC126" t="s" s="2">
@@ -17388,7 +17391,7 @@
         <v>193</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -17400,7 +17403,7 @@
         <v>79</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>79</v>
@@ -17409,10 +17412,10 @@
         <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17423,7 +17426,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17538,7 +17541,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17655,11 +17658,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17681,10 +17684,10 @@
         <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>137</v>
@@ -17739,7 +17742,7 @@
         <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -17774,7 +17777,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17800,16 +17803,16 @@
         <v>185</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>79</v>
@@ -17858,7 +17861,7 @@
         <v>79</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>88</v>
@@ -17876,7 +17879,7 @@
         <v>79</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>278</v>
@@ -17893,7 +17896,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17916,19 +17919,19 @@
         <v>89</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
@@ -17956,10 +17959,10 @@
         <v>177</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>79</v>
@@ -17977,7 +17980,7 @@
         <v>79</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17986,7 +17989,7 @@
         <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>100</v>
@@ -17995,24 +17998,24 @@
         <v>79</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18038,16 +18041,16 @@
         <v>185</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>79</v>
@@ -18075,10 +18078,10 @@
         <v>273</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
@@ -18096,7 +18099,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -18105,7 +18108,7 @@
         <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>100</v>
@@ -18120,7 +18123,7 @@
         <v>131</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -18131,11 +18134,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18157,16 +18160,16 @@
         <v>185</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>79</v>
@@ -18194,10 +18197,10 @@
         <v>273</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>79</v>
@@ -18215,7 +18218,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -18233,24 +18236,24 @@
         <v>79</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18276,16 +18279,16 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>79</v>
@@ -18334,7 +18337,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -18355,10 +18358,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18369,10 +18372,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>79</v>
@@ -18394,19 +18397,19 @@
         <v>89</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -18455,7 +18458,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -18467,7 +18470,7 @@
         <v>79</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>79</v>
@@ -18476,10 +18479,10 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -18490,7 +18493,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18605,7 +18608,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18722,11 +18725,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18748,10 +18751,10 @@
         <v>134</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>137</v>
@@ -18806,7 +18809,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -18841,11 +18844,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18867,16 +18870,16 @@
         <v>185</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>79</v>
@@ -18925,7 +18928,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>88</v>
@@ -18943,7 +18946,7 @@
         <v>79</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>278</v>
@@ -18960,7 +18963,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19075,7 +19078,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19192,7 +19195,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19218,10 +19221,10 @@
         <v>209</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>212</v>
@@ -19309,10 +19312,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>79</v>
@@ -19337,10 +19340,10 @@
         <v>209</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>212</v>
@@ -19430,7 +19433,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19545,7 +19548,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19662,7 +19665,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19781,7 +19784,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19898,7 +19901,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19938,7 +19941,7 @@
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="R148" t="s" s="2">
         <v>79</v>
@@ -20015,7 +20018,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20132,7 +20135,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20251,10 +20254,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>79</v>
@@ -20279,10 +20282,10 @@
         <v>209</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>212</v>
@@ -20372,7 +20375,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20487,7 +20490,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20604,7 +20607,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20723,7 +20726,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20840,7 +20843,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20880,7 +20883,7 @@
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="R156" t="s" s="2">
         <v>79</v>
@@ -20957,7 +20960,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21074,7 +21077,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21193,7 +21196,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21312,7 +21315,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21335,19 +21338,19 @@
         <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>79</v>
@@ -21375,10 +21378,10 @@
         <v>177</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>79</v>
@@ -21396,7 +21399,7 @@
         <v>79</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -21405,7 +21408,7 @@
         <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -21414,24 +21417,24 @@
         <v>79</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21546,7 +21549,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21663,7 +21666,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21686,19 +21689,19 @@
         <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>79</v>
@@ -21747,7 +21750,7 @@
         <v>79</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -21768,10 +21771,10 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>79</v>
@@ -21782,7 +21785,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21808,20 +21811,20 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P164" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>79</v>
@@ -21845,10 +21848,10 @@
         <v>177</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>79</v>
@@ -21866,7 +21869,7 @@
         <v>79</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -21887,10 +21890,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21901,7 +21904,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21927,14 +21930,14 @@
         <v>198</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>79</v>
@@ -21983,7 +21986,7 @@
         <v>79</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -22004,10 +22007,10 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>79</v>
@@ -22018,7 +22021,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22044,21 +22047,21 @@
         <v>102</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R166" t="s" s="2">
         <v>79</v>
@@ -22100,7 +22103,7 @@
         <v>79</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -22109,7 +22112,7 @@
         <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>100</v>
@@ -22121,10 +22124,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22135,7 +22138,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22161,23 +22164,23 @@
         <v>108</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R167" t="s" s="2">
         <v>79</v>
@@ -22219,7 +22222,7 @@
         <v>79</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -22240,10 +22243,10 @@
         <v>79</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22254,7 +22257,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22280,16 +22283,16 @@
         <v>185</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>79</v>
@@ -22317,10 +22320,10 @@
         <v>273</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>79</v>
@@ -22338,7 +22341,7 @@
         <v>79</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
@@ -22347,7 +22350,7 @@
         <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>100</v>
@@ -22362,7 +22365,7 @@
         <v>131</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>79</v>
@@ -22373,11 +22376,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22399,16 +22402,16 @@
         <v>185</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>79</v>
@@ -22436,10 +22439,10 @@
         <v>273</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>79</v>
@@ -22457,7 +22460,7 @@
         <v>79</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -22475,24 +22478,24 @@
         <v>79</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22518,16 +22521,16 @@
         <v>79</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>79</v>
@@ -22576,7 +22579,7 @@
         <v>79</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -22597,10 +22600,10 @@
         <v>79</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>79</v>
@@ -22611,10 +22614,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>79</v>
@@ -22636,19 +22639,19 @@
         <v>89</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>79</v>
@@ -22697,7 +22700,7 @@
         <v>79</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -22709,7 +22712,7 @@
         <v>79</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>79</v>
@@ -22718,10 +22721,10 @@
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22732,7 +22735,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22847,7 +22850,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22964,11 +22967,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22990,10 +22993,10 @@
         <v>134</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M174" t="s" s="2">
         <v>137</v>
@@ -23048,7 +23051,7 @@
         <v>79</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -23083,7 +23086,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23109,16 +23112,16 @@
         <v>185</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>271</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>79</v>
@@ -23167,7 +23170,7 @@
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>88</v>
@@ -23185,7 +23188,7 @@
         <v>79</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>278</v>
@@ -23202,7 +23205,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23317,7 +23320,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23434,7 +23437,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23460,10 +23463,10 @@
         <v>209</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>212</v>
@@ -23551,10 +23554,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>79</v>
@@ -23579,10 +23582,10 @@
         <v>209</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>212</v>
@@ -23672,7 +23675,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23787,7 +23790,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23904,7 +23907,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24023,7 +24026,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24140,7 +24143,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24180,7 +24183,7 @@
       </c>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="R184" t="s" s="2">
         <v>79</v>
@@ -24257,7 +24260,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24374,7 +24377,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24493,10 +24496,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>79</v>
@@ -24521,10 +24524,10 @@
         <v>209</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>212</v>
@@ -24614,7 +24617,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24729,7 +24732,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24846,7 +24849,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24965,7 +24968,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25082,7 +25085,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25122,7 +25125,7 @@
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="R192" t="s" s="2">
         <v>79</v>
@@ -25199,7 +25202,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25316,7 +25319,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25435,7 +25438,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25554,7 +25557,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25577,19 +25580,19 @@
         <v>89</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>79</v>
@@ -25617,10 +25620,10 @@
         <v>177</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>79</v>
@@ -25638,7 +25641,7 @@
         <v>79</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>77</v>
@@ -25647,7 +25650,7 @@
         <v>88</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>100</v>
@@ -25656,24 +25659,24 @@
         <v>79</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25788,7 +25791,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25905,7 +25908,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25928,19 +25931,19 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>79</v>
@@ -25989,7 +25992,7 @@
         <v>79</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>77</v>
@@ -26010,10 +26013,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26024,7 +26027,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26050,20 +26053,20 @@
         <v>108</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P200" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>79</v>
@@ -26087,10 +26090,10 @@
         <v>177</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>79</v>
@@ -26108,7 +26111,7 @@
         <v>79</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>77</v>
@@ -26129,10 +26132,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26143,7 +26146,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26169,14 +26172,14 @@
         <v>198</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>79</v>
@@ -26225,7 +26228,7 @@
         <v>79</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>77</v>
@@ -26246,10 +26249,10 @@
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26260,7 +26263,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26286,21 +26289,21 @@
         <v>102</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="R202" t="s" s="2">
         <v>79</v>
@@ -26342,7 +26345,7 @@
         <v>79</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>77</v>
@@ -26351,7 +26354,7 @@
         <v>88</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>100</v>
@@ -26363,10 +26366,10 @@
         <v>79</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>79</v>
@@ -26377,7 +26380,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26403,23 +26406,23 @@
         <v>108</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>79</v>
@@ -26461,7 +26464,7 @@
         <v>79</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>77</v>
@@ -26482,10 +26485,10 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>79</v>
@@ -26496,7 +26499,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26522,16 +26525,16 @@
         <v>185</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>79</v>
@@ -26559,10 +26562,10 @@
         <v>273</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>79</v>
@@ -26580,7 +26583,7 @@
         <v>79</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>77</v>
@@ -26589,7 +26592,7 @@
         <v>88</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>100</v>
@@ -26604,7 +26607,7 @@
         <v>131</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26615,11 +26618,11 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26641,16 +26644,16 @@
         <v>185</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>79</v>
@@ -26678,10 +26681,10 @@
         <v>273</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>79</v>
@@ -26699,7 +26702,7 @@
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>77</v>
@@ -26717,24 +26720,24 @@
         <v>79</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26760,16 +26763,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>79</v>
@@ -26818,7 +26821,7 @@
         <v>79</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>77</v>
@@ -26839,10 +26842,10 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -925,7 +925,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1134,7 +1134,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1212,7 +1212,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1300,7 +1300,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1363,7 +1363,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1628,7 +1628,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1788,7 +1788,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1946,7 +1946,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1982,7 +1982,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2019,7 +2019,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2942,7 +2942,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4543,7 +4543,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>249</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>285</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>322</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>334</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>359</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>385</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>395</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>418</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>440</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>461</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>474</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>479</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>481</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>484</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>497</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>499</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>664</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>670</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>679</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>688</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>693</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>720</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>725</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>727</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>733</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>738</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>759</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>767</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>776</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>784</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>787</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>792</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>808</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>813</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>815</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>820</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>823</v>
       </c>
@@ -27077,7 +27077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>825</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>826</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>827</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>828</v>
       </c>
@@ -27807,12 +27807,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP206">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
